--- a/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/SISTEMA/AGENTE DE COMPRA/EXCEL SISTEMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E37B1-0B31-D84D-A62E-4E67CFCB0CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920AFAF5-B785-4E9B-8B6F-25DC89DC92C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26700" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COD" sheetId="5" r:id="rId1"/>
@@ -274,13 +274,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -942,7 +942,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -956,13 +956,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -977,7 +977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1049,30 +1049,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1099,16 +1099,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,13 +1117,13 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,7 +1135,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1144,7 +1144,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,7 +1156,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1168,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1180,10 +1180,10 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,10 +1192,10 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,14 +1207,113 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1222,169 +1321,70 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,15 +1419,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>248953</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57870</xdr:rowOff>
+      <xdr:colOff>1645953</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1208991</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>50674</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>997325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>220007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,15 +1450,15 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="63723" t="25687" r="9603" b="24521"/>
+        <a:srcRect l="63966" t="25448" r="10463" b="26819"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27884153" y="17660070"/>
-          <a:ext cx="2636438" cy="2888404"/>
+          <a:off x="31744953" y="17160536"/>
+          <a:ext cx="2632205" cy="2744471"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1844,34 +1844,34 @@
   </sheetPr>
   <dimension ref="C1:AF56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:U20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="49" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="19" width="20.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.875" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
     <col min="32" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C1" s="8"/>
       <c r="D1" s="15"/>
       <c r="E1" s="23"/>
@@ -1894,15 +1894,15 @@
       <c r="V1" s="23"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C2" s="10"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1913,7 +1913,7 @@
       <c r="L4" s="50"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1922,7 +1922,7 @@
       <c r="L5" s="50"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="3:23" ht="92" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:23" ht="92.25" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="10"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -1955,7 +1955,7 @@
       <c r="N7"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="10"/>
       <c r="D8" s="36" t="s">
         <v>10</v>
@@ -1971,75 +1971,75 @@
       <c r="K8"/>
       <c r="L8" s="50"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="147" t="s">
+      <c r="N8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="147"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147" t="s">
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
       <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="3:23" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:23" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C9" s="10"/>
       <c r="D9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="113"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9"/>
       <c r="L9" s="50"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="148" t="s">
+      <c r="N9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="143">
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="115">
         <v>45470</v>
       </c>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="144"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="116"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="3:23" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C10" s="10"/>
       <c r="D10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10"/>
       <c r="L10" s="50"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="146"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="10"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -2058,7 +2058,7 @@
       <c r="T11" s="54"/>
       <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="3:23" ht="37" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="10"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -2078,12 +2078,12 @@
       <c r="T12" s="55"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" spans="3:23" ht="37" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="10"/>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="160"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13"/>
@@ -2101,7 +2101,7 @@
       <c r="T13" s="55"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2121,7 +2121,7 @@
       <c r="T14" s="54"/>
       <c r="W14" s="11"/>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2142,7 +2142,7 @@
       <c r="T15" s="54"/>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2163,113 +2163,113 @@
       <c r="T16" s="54"/>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C17" s="10"/>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="132"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
       <c r="I17" s="101"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="50"/>
-      <c r="O17" s="131" t="s">
+      <c r="O17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="112"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="133"/>
       <c r="W17" s="11"/>
     </row>
-    <row r="18" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C18" s="10"/>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="135"/>
       <c r="I18" s="101"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="50"/>
-      <c r="O18" s="114" t="s">
+      <c r="O18" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="110"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="135"/>
       <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C19" s="10"/>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="135"/>
       <c r="I19" s="101"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="50"/>
-      <c r="O19" s="114" t="s">
+      <c r="O19" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="110"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="135"/>
       <c r="W19" s="11"/>
     </row>
-    <row r="20" spans="3:23" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C20" s="10"/>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="138"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="161"/>
       <c r="I20" s="100"/>
       <c r="K20"/>
       <c r="L20" s="50"/>
-      <c r="O20" s="105" t="s">
+      <c r="O20" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="136"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="137"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.35">
       <c r="C21" s="10"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
       <c r="I21" s="40"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" s="50"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="10"/>
       <c r="D22"/>
       <c r="F22" s="46"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="W22" s="11"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2314,7 +2314,7 @@
       <c r="T23" s="55"/>
       <c r="W23" s="11"/>
     </row>
-    <row r="24" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
@@ -2336,7 +2336,7 @@
       <c r="U24" s="24"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
       <c r="D25" s="26"/>
       <c r="E25" s="2"/>
@@ -2357,28 +2357,28 @@
       <c r="T25" s="57"/>
       <c r="W25" s="11"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26" s="10"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
       <c r="D27" s="64" t="s">
         <v>1</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="10"/>
       <c r="D28" s="41">
         <v>1</v>
@@ -2447,7 +2447,7 @@
       <c r="H28" s="104"/>
       <c r="I28" s="104"/>
       <c r="J28" s="102"/>
-      <c r="K28" s="161">
+      <c r="K28" s="105">
         <f>J28/$T$22</f>
         <v>0</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="U28" s="73"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="10"/>
       <c r="D29" s="42">
         <v>2</v>
@@ -2488,7 +2488,7 @@
       <c r="H29" s="104"/>
       <c r="I29" s="104"/>
       <c r="J29" s="103"/>
-      <c r="K29" s="161">
+      <c r="K29" s="105">
         <f>J29/$T$22</f>
         <v>0</v>
       </c>
@@ -2518,82 +2518,82 @@
       <c r="U29" s="79"/>
       <c r="W29" s="11"/>
     </row>
-    <row r="30" spans="3:23" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C30" s="17"/>
-      <c r="D30" s="128" t="s">
+      <c r="D30" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="133">
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="158">
         <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="139">
+      <c r="M30" s="128">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="38"/>
-      <c r="O30" s="140">
+      <c r="O30" s="129">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="38"/>
-      <c r="Q30" s="134">
+      <c r="Q30" s="131">
         <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="58"/>
-      <c r="S30" s="134">
+      <c r="S30" s="131">
         <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="154">
+      <c r="T30" s="127">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
       <c r="U30" s="39"/>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="3:23" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C31" s="17"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="139"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="128"/>
       <c r="N31" s="38"/>
-      <c r="O31" s="141"/>
+      <c r="O31" s="130"/>
       <c r="P31" s="38"/>
-      <c r="Q31" s="134"/>
+      <c r="Q31" s="131"/>
       <c r="R31" s="58"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="154"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="127"/>
       <c r="U31" s="39"/>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
       <c r="M32" s="5"/>
       <c r="R32" s="59"/>
       <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C33" s="10"/>
       <c r="M33" s="5"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="3:32" ht="24" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C34" s="10"/>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
@@ -2607,17 +2607,17 @@
       <c r="I34" s="92"/>
       <c r="W34" s="11"/>
     </row>
-    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="10"/>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="127"/>
-      <c r="F35" s="116">
+      <c r="E35" s="110"/>
+      <c r="F35" s="111">
         <f>+L30</f>
         <v>0</v>
       </c>
-      <c r="G35" s="142">
+      <c r="G35" s="113">
         <f>+M30</f>
         <v>0</v>
       </c>
@@ -2628,12 +2628,12 @@
       <c r="S35" s="3"/>
       <c r="W35" s="11"/>
     </row>
-    <row r="36" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="10"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="142"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="Q36" s="3"/>
@@ -2641,17 +2641,17 @@
       <c r="S36" s="3"/>
       <c r="W36" s="11"/>
     </row>
-    <row r="37" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
-      <c r="D37" s="127" t="s">
+      <c r="D37" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="127"/>
-      <c r="F37" s="116">
+      <c r="E37" s="110"/>
+      <c r="F37" s="111">
         <f>+T30</f>
         <v>0</v>
       </c>
-      <c r="G37" s="142">
+      <c r="G37" s="113">
         <f>F37/T22</f>
         <v>0</v>
       </c>
@@ -2662,35 +2662,35 @@
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
     </row>
-    <row r="38" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="142"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="93"/>
       <c r="I38" s="93"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
       <c r="W38" s="11"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
     </row>
-    <row r="39" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
-      <c r="D39" s="127" t="s">
+      <c r="D39" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="116">
+      <c r="E39" s="110"/>
+      <c r="F39" s="111">
         <f>G39*T22</f>
         <v>1750</v>
       </c>
-      <c r="G39" s="142">
+      <c r="G39" s="113">
         <f>IF((G35*0.05)&gt;250,G35*0.05,250)</f>
         <v>250</v>
       </c>
@@ -2698,27 +2698,27 @@
       <c r="I39" s="93"/>
       <c r="W39" s="11"/>
     </row>
-    <row r="40" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="160"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
       <c r="W40" s="11"/>
     </row>
-    <row r="41" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
-      <c r="D41" s="121" t="s">
+      <c r="D41" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="122"/>
-      <c r="F41" s="125">
+      <c r="E41" s="150"/>
+      <c r="F41" s="153">
         <f>SUM(F35:F40)</f>
         <v>1750</v>
       </c>
-      <c r="G41" s="159">
+      <c r="G41" s="112">
         <f>SUM(G35:G40)</f>
         <v>250</v>
       </c>
@@ -2726,50 +2726,50 @@
       <c r="I41" s="94"/>
       <c r="W41" s="11"/>
     </row>
-    <row r="42" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="10"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="159"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="94"/>
       <c r="I42" s="94"/>
       <c r="W42" s="11"/>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C43" s="10"/>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
       <c r="W43" s="11"/>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C44" s="10"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="11"/>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C45" s="10"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="11"/>
     </row>
-    <row r="46" spans="3:32" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:32" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="10"/>
-      <c r="D46" s="118" t="s">
+      <c r="D46" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="120"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="11"/>
     </row>
-    <row r="47" spans="3:32" ht="19" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:32" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
       <c r="D47" s="80"/>
       <c r="E47" s="59"/>
@@ -2782,24 +2782,24 @@
       <c r="V47" s="1"/>
       <c r="W47" s="11"/>
     </row>
-    <row r="48" spans="3:32" ht="21" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:32" ht="21" x14ac:dyDescent="0.25">
       <c r="C48" s="10"/>
-      <c r="D48" s="156" t="s">
+      <c r="D48" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157" t="s">
+      <c r="E48" s="108"/>
+      <c r="F48" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="158"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="109"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="27"/>
     </row>
-    <row r="49" spans="3:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C49" s="10"/>
       <c r="D49" s="80"/>
       <c r="E49" s="59"/>
@@ -2812,12 +2812,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="27"/>
     </row>
-    <row r="50" spans="3:23" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="10"/>
-      <c r="D50" s="155" t="s">
+      <c r="D50" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="155"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="82"/>
       <c r="G50" s="82" t="s">
         <v>40</v>
@@ -2829,7 +2829,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="11"/>
     </row>
-    <row r="51" spans="3:23" ht="19" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C51" s="10"/>
       <c r="D51" s="83"/>
       <c r="E51" s="84"/>
@@ -2842,24 +2842,24 @@
       <c r="V51" s="1"/>
       <c r="W51" s="11"/>
     </row>
-    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.25">
       <c r="C52" s="10"/>
-      <c r="D52" s="156" t="s">
+      <c r="D52" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157" t="s">
+      <c r="E52" s="108"/>
+      <c r="F52" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="158"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="11"/>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C53" s="10"/>
       <c r="D53" s="87"/>
       <c r="E53" s="88"/>
@@ -2872,17 +2872,17 @@
       <c r="V53" s="1"/>
       <c r="W53" s="11"/>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54" s="10"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="11"/>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C55" s="10"/>
       <c r="W55" s="11"/>
     </row>
-    <row r="56" spans="3:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="12"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -2907,34 +2907,12 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F37:F38"/>
@@ -2951,12 +2929,34 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="S30:S31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J48"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>

--- a/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920AFAF5-B785-4E9B-8B6F-25DC89DC92C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E26469-51BC-461A-841F-5A7E5BD72806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COD" sheetId="5" r:id="rId1"/>
@@ -1219,33 +1219,114 @@
     <xf numFmtId="167" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,9 +1352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,106 +1363,28 @@
     <xf numFmtId="168" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,23 +1418,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1645953</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>184869</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>997325</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>220007</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2472266</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1025654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6A92E2-EADE-47C2-A126-ADAE9BCD0E8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329ACE8E-356F-AB04-C119-CE3987B58A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,23 +1442,18 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="63966" t="25448" r="10463" b="26819"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31744953" y="17160536"/>
-          <a:ext cx="2632205" cy="2744471"/>
+          <a:off x="2099733" y="540127"/>
+          <a:ext cx="6671733" cy="1501527"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1467,74 +1462,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546066</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>206619</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>106097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514809</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32497</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>207303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 8">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B0309C-A663-421F-8688-0A602888ED90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7CF6C0-F616-6D84-3517-97A244F04D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="5669" t="32008" r="4454" b="36966"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1633037" y="197223"/>
-          <a:ext cx="8068782" cy="2020421"/>
+          <a:off x="32041286" y="17598230"/>
+          <a:ext cx="2451914" cy="2421073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1844,34 +1809,34 @@
   </sheetPr>
   <dimension ref="C1:AF56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J29" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.8984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.09765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.09765625" style="49" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="1" customWidth="1"/>
     <col min="15" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="19" width="20.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20.3984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
     <col min="32" max="32" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C1" s="8"/>
       <c r="D1" s="15"/>
       <c r="E1" s="23"/>
@@ -1894,15 +1859,15 @@
       <c r="V1" s="23"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C2" s="10"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C3" s="10"/>
       <c r="W3" s="11"/>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -1913,7 +1878,7 @@
       <c r="L4" s="50"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C5" s="10"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -1922,7 +1887,7 @@
       <c r="L5" s="50"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="3:23" ht="92.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:23" ht="91.8" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
@@ -1940,7 +1905,7 @@
       </c>
       <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C7" s="10"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -1955,7 +1920,7 @@
       <c r="N7"/>
       <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C8" s="10"/>
       <c r="D8" s="36" t="s">
         <v>10</v>
@@ -1971,75 +1936,75 @@
       <c r="K8"/>
       <c r="L8" s="50"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="119" t="s">
+      <c r="N8" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119" t="s">
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
       <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="3:23" ht="30.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="3:23" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C9" s="10"/>
       <c r="D9" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="144"/>
+      <c r="G9" s="116"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9"/>
       <c r="L9" s="50"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="120" t="s">
+      <c r="N9" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="115">
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="142">
         <v>45470</v>
       </c>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="116"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="142"/>
+      <c r="U9" s="143"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C10" s="10"/>
       <c r="D10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10"/>
       <c r="L10" s="50"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="118"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="145"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C11" s="10"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -2058,7 +2023,7 @@
       <c r="T11" s="54"/>
       <c r="W11" s="11"/>
     </row>
-    <row r="12" spans="3:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
       <c r="C12" s="10"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -2078,12 +2043,12 @@
       <c r="T12" s="55"/>
       <c r="W12" s="11"/>
     </row>
-    <row r="13" spans="3:23" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C13" s="10"/>
-      <c r="D13" s="159" t="s">
+      <c r="D13" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="160"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13"/>
@@ -2101,7 +2066,7 @@
       <c r="T13" s="55"/>
       <c r="W13" s="11"/>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C14" s="10"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -2121,7 +2086,7 @@
       <c r="T14" s="54"/>
       <c r="W14" s="11"/>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C15" s="10"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -2142,7 +2107,7 @@
       <c r="T15" s="54"/>
       <c r="W15" s="11"/>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -2163,113 +2128,113 @@
       <c r="T16" s="54"/>
       <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C17" s="10"/>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="113"/>
       <c r="I17" s="101"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="50"/>
-      <c r="O17" s="142" t="s">
+      <c r="O17" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="133"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="113"/>
       <c r="W17" s="11"/>
     </row>
-    <row r="18" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C18" s="10"/>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
       <c r="I18" s="101"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="50"/>
-      <c r="O18" s="140" t="s">
+      <c r="O18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="135"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="111"/>
       <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C19" s="10"/>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
       <c r="I19" s="101"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="50"/>
-      <c r="O19" s="140" t="s">
+      <c r="O19" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="135"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="111"/>
       <c r="W19" s="11"/>
     </row>
-    <row r="20" spans="3:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C20" s="10"/>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="161"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="100"/>
       <c r="K20"/>
       <c r="L20" s="50"/>
-      <c r="O20" s="138" t="s">
+      <c r="O20" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="137"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="155"/>
       <c r="W20" s="11"/>
     </row>
-    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C21" s="10"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="40"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21" s="50"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="10"/>
       <c r="D22"/>
       <c r="F22" s="46"/>
@@ -2293,7 +2258,7 @@
       </c>
       <c r="W22" s="11"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2314,7 +2279,7 @@
       <c r="T23" s="55"/>
       <c r="W23" s="11"/>
     </row>
-    <row r="24" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
@@ -2336,7 +2301,7 @@
       <c r="U24" s="24"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
       <c r="D25" s="26"/>
       <c r="E25" s="2"/>
@@ -2357,28 +2322,28 @@
       <c r="T25" s="57"/>
       <c r="W25" s="11"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="157"/>
-      <c r="S26" s="157"/>
-      <c r="T26" s="157"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
       <c r="D27" s="64" t="s">
         <v>1</v>
@@ -2436,7 +2401,7 @@
       </c>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="41">
         <v>1</v>
@@ -2477,7 +2442,7 @@
       <c r="U28" s="73"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="42">
         <v>2</v>
@@ -2518,82 +2483,82 @@
       <c r="U29" s="79"/>
       <c r="W29" s="11"/>
     </row>
-    <row r="30" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C30" s="17"/>
-      <c r="D30" s="155" t="s">
+      <c r="D30" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="158">
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="136">
         <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="128">
+      <c r="M30" s="138">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="38"/>
-      <c r="O30" s="129">
+      <c r="O30" s="139">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="38"/>
-      <c r="Q30" s="131">
+      <c r="Q30" s="137">
         <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="58"/>
-      <c r="S30" s="131">
+      <c r="S30" s="137">
         <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="127">
+      <c r="T30" s="153">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
       <c r="U30" s="39"/>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="3:23" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C31" s="17"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="128"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="138"/>
       <c r="N31" s="38"/>
-      <c r="O31" s="130"/>
+      <c r="O31" s="140"/>
       <c r="P31" s="38"/>
-      <c r="Q31" s="131"/>
+      <c r="Q31" s="137"/>
       <c r="R31" s="58"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="127"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="153"/>
       <c r="U31" s="39"/>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C32" s="10"/>
       <c r="M32" s="5"/>
       <c r="R32" s="59"/>
       <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C33" s="10"/>
       <c r="M33" s="5"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="3:32" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:32" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
@@ -2607,17 +2572,17 @@
       <c r="I34" s="92"/>
       <c r="W34" s="11"/>
     </row>
-    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="10"/>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="111">
+      <c r="E35" s="130"/>
+      <c r="F35" s="119">
         <f>+L30</f>
         <v>0</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="141">
         <f>+M30</f>
         <v>0</v>
       </c>
@@ -2628,12 +2593,12 @@
       <c r="S35" s="3"/>
       <c r="W35" s="11"/>
     </row>
-    <row r="36" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="113"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="141"/>
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="Q36" s="3"/>
@@ -2641,17 +2606,17 @@
       <c r="S36" s="3"/>
       <c r="W36" s="11"/>
     </row>
-    <row r="37" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="10"/>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="111">
+      <c r="E37" s="130"/>
+      <c r="F37" s="119">
         <f>+T30</f>
         <v>0</v>
       </c>
-      <c r="G37" s="113">
+      <c r="G37" s="141">
         <f>F37/T22</f>
         <v>0</v>
       </c>
@@ -2662,35 +2627,35 @@
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
     </row>
-    <row r="38" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="10"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="141"/>
       <c r="H38" s="93"/>
       <c r="I38" s="93"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="126"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="126"/>
-      <c r="U38" s="126"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
       <c r="W38" s="11"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
     </row>
-    <row r="39" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="10"/>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111">
+      <c r="E39" s="130"/>
+      <c r="F39" s="119">
         <f>G39*T22</f>
         <v>1750</v>
       </c>
-      <c r="G39" s="113">
+      <c r="G39" s="141">
         <f>IF((G35*0.05)&gt;250,G35*0.05,250)</f>
         <v>250</v>
       </c>
@@ -2698,27 +2663,27 @@
       <c r="I39" s="93"/>
       <c r="W39" s="11"/>
     </row>
-    <row r="40" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="10"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="114"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="161"/>
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
       <c r="W40" s="11"/>
     </row>
-    <row r="41" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="10"/>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="153">
+      <c r="E41" s="125"/>
+      <c r="F41" s="128">
         <f>SUM(F35:F40)</f>
         <v>1750</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="160">
         <f>SUM(G35:G40)</f>
         <v>250</v>
       </c>
@@ -2726,50 +2691,50 @@
       <c r="I41" s="94"/>
       <c r="W41" s="11"/>
     </row>
-    <row r="42" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="10"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="112"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="160"/>
       <c r="H42" s="94"/>
       <c r="I42" s="94"/>
       <c r="W42" s="11"/>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C43" s="10"/>
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
       <c r="W43" s="11"/>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C44" s="10"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="11"/>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C45" s="10"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="11"/>
     </row>
-    <row r="46" spans="3:32" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:32" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="10"/>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="148"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="123"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="11"/>
     </row>
-    <row r="47" spans="3:32" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:32" ht="18" x14ac:dyDescent="0.3">
       <c r="C47" s="10"/>
       <c r="D47" s="80"/>
       <c r="E47" s="59"/>
@@ -2782,24 +2747,24 @@
       <c r="V47" s="1"/>
       <c r="W47" s="11"/>
     </row>
-    <row r="48" spans="3:32" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:32" ht="21" x14ac:dyDescent="0.3">
       <c r="C48" s="10"/>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108" t="s">
+      <c r="E48" s="158"/>
+      <c r="F48" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="109"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="159"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="27"/>
     </row>
-    <row r="49" spans="3:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" ht="18" x14ac:dyDescent="0.3">
       <c r="C49" s="10"/>
       <c r="D49" s="80"/>
       <c r="E49" s="59"/>
@@ -2812,12 +2777,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="27"/>
     </row>
-    <row r="50" spans="3:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="10"/>
-      <c r="D50" s="106" t="s">
+      <c r="D50" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="106"/>
+      <c r="E50" s="156"/>
       <c r="F50" s="82"/>
       <c r="G50" s="82" t="s">
         <v>40</v>
@@ -2829,7 +2794,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="11"/>
     </row>
-    <row r="51" spans="3:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:23" ht="18" x14ac:dyDescent="0.3">
       <c r="C51" s="10"/>
       <c r="D51" s="83"/>
       <c r="E51" s="84"/>
@@ -2842,24 +2807,24 @@
       <c r="V51" s="1"/>
       <c r="W51" s="11"/>
     </row>
-    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C52" s="10"/>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108" t="s">
+      <c r="E52" s="158"/>
+      <c r="F52" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="109"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="159"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="11"/>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C53" s="10"/>
       <c r="D53" s="87"/>
       <c r="E53" s="88"/>
@@ -2872,17 +2837,17 @@
       <c r="V53" s="1"/>
       <c r="W53" s="11"/>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C54" s="10"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="11"/>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C55" s="10"/>
       <c r="W55" s="11"/>
     </row>
-    <row r="56" spans="3:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="12"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -2907,12 +2872,34 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G35:G36"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F37:F38"/>
@@ -2929,34 +2916,12 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="S30:S31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>

--- a/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
+++ b/assets/downloads/agente_compra/CTRADING-ORDEN-PERU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\probusinees-intranet\assets\downloads\agente_compra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E26469-51BC-461A-841F-5A7E5BD72806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D2C6C-8966-42FA-831A-FBCF3518A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,172 +1219,172 @@
     <xf numFmtId="167" fontId="13" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="33" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,8 +1809,8 @@
   </sheetPr>
   <dimension ref="C1:AF56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J29" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="45" zoomScaleNormal="40" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1936,18 +1936,18 @@
       <c r="K8"/>
       <c r="L8" s="50"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="146" t="s">
+      <c r="N8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146" t="s">
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="3:23" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
@@ -1956,28 +1956,28 @@
         <v>21</v>
       </c>
       <c r="E9" s="34"/>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9"/>
       <c r="L9" s="50"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="147" t="s">
+      <c r="N9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="142">
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="115">
         <v>45470</v>
       </c>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="143"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="116"/>
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.6">
@@ -1986,22 +1986,22 @@
         <v>20</v>
       </c>
       <c r="E10" s="34"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10"/>
       <c r="L10" s="50"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="144"/>
-      <c r="U10" s="145"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="3:23" ht="36.6" x14ac:dyDescent="0.7">
@@ -2045,10 +2045,10 @@
     </row>
     <row r="13" spans="3:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C13" s="10"/>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="160"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13"/>
@@ -2130,104 +2130,104 @@
     </row>
     <row r="17" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C17" s="10"/>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="135"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="101"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17" s="50"/>
-      <c r="O17" s="134" t="s">
+      <c r="O17" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="113"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="129"/>
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C18" s="10"/>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="101"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18" s="50"/>
-      <c r="O18" s="117" t="s">
+      <c r="O18" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="111"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="131"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C19" s="10"/>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
       <c r="I19" s="101"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" s="50"/>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="111"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="131"/>
       <c r="W19" s="11"/>
     </row>
     <row r="20" spans="3:23" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C20" s="10"/>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="107"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="161"/>
       <c r="I20" s="100"/>
       <c r="K20"/>
       <c r="L20" s="50"/>
-      <c r="O20" s="106" t="s">
+      <c r="O20" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="155"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="133"/>
       <c r="W20" s="11"/>
     </row>
     <row r="21" spans="3:23" ht="21" x14ac:dyDescent="0.4">
       <c r="C21" s="10"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
       <c r="I21" s="40"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2324,23 +2324,23 @@
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C26" s="10"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
       <c r="W26" s="11"/>
     </row>
     <row r="27" spans="3:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="3:23" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:23" ht="255.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="10"/>
       <c r="D28" s="41">
         <v>1</v>
@@ -2442,7 +2442,7 @@
       <c r="U28" s="73"/>
       <c r="W28" s="11"/>
     </row>
-    <row r="29" spans="3:23" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:23" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="10"/>
       <c r="D29" s="42">
         <v>2</v>
@@ -2485,40 +2485,40 @@
     </row>
     <row r="30" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C30" s="17"/>
-      <c r="D30" s="131" t="s">
+      <c r="D30" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="136">
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="158">
         <f>SUM(L28:L29)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="138">
+      <c r="M30" s="140">
         <f>SUM(M28:M29)</f>
         <v>0</v>
       </c>
       <c r="N30" s="38"/>
-      <c r="O30" s="139">
+      <c r="O30" s="141">
         <f>SUM(O28:O29)</f>
         <v>0</v>
       </c>
       <c r="P30" s="38"/>
-      <c r="Q30" s="137">
+      <c r="Q30" s="143">
         <f>SUM(Q28:Q29)</f>
         <v>0</v>
       </c>
       <c r="R30" s="58"/>
-      <c r="S30" s="137">
+      <c r="S30" s="143">
         <f>SUM(S28:S29)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="153">
+      <c r="T30" s="127">
         <f>SUM(T28:T29)</f>
         <v>0</v>
       </c>
@@ -2527,23 +2527,23 @@
     </row>
     <row r="31" spans="3:23" s="4" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C31" s="17"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="138"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="38"/>
-      <c r="O31" s="140"/>
+      <c r="O31" s="142"/>
       <c r="P31" s="38"/>
-      <c r="Q31" s="137"/>
+      <c r="Q31" s="143"/>
       <c r="R31" s="58"/>
-      <c r="S31" s="137"/>
-      <c r="T31" s="153"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="127"/>
       <c r="U31" s="39"/>
       <c r="W31" s="18"/>
     </row>
@@ -2574,15 +2574,15 @@
     </row>
     <row r="35" spans="3:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="10"/>
-      <c r="D35" s="130" t="s">
+      <c r="D35" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="119">
+      <c r="E35" s="110"/>
+      <c r="F35" s="111">
         <f>+L30</f>
         <v>0</v>
       </c>
-      <c r="G35" s="141">
+      <c r="G35" s="113">
         <f>+M30</f>
         <v>0</v>
       </c>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="36" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="141"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="113"/>
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="Q36" s="3"/>
@@ -2608,15 +2608,15 @@
     </row>
     <row r="37" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="10"/>
-      <c r="D37" s="130" t="s">
+      <c r="D37" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="119">
+      <c r="E37" s="110"/>
+      <c r="F37" s="111">
         <f>+T30</f>
         <v>0</v>
       </c>
-      <c r="G37" s="141">
+      <c r="G37" s="113">
         <f>F37/T22</f>
         <v>0</v>
       </c>
@@ -2629,33 +2629,33 @@
     </row>
     <row r="38" spans="3:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="10"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="141"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="93"/>
       <c r="I38" s="93"/>
-      <c r="P38" s="152"/>
-      <c r="Q38" s="152"/>
-      <c r="R38" s="152"/>
-      <c r="S38" s="152"/>
-      <c r="T38" s="152"/>
-      <c r="U38" s="152"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="126"/>
+      <c r="R38" s="126"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
       <c r="W38" s="11"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
     </row>
     <row r="39" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="10"/>
-      <c r="D39" s="130" t="s">
+      <c r="D39" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="119">
+      <c r="E39" s="110"/>
+      <c r="F39" s="111">
         <f>G39*T22</f>
         <v>1750</v>
       </c>
-      <c r="G39" s="141">
+      <c r="G39" s="113">
         <f>IF((G35*0.05)&gt;250,G35*0.05,250)</f>
         <v>250</v>
       </c>
@@ -2665,25 +2665,25 @@
     </row>
     <row r="40" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="10"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="161"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="93"/>
       <c r="I40" s="93"/>
       <c r="W40" s="11"/>
     </row>
     <row r="41" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="10"/>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="128">
+      <c r="E41" s="150"/>
+      <c r="F41" s="153">
         <f>SUM(F35:F40)</f>
         <v>1750</v>
       </c>
-      <c r="G41" s="160">
+      <c r="G41" s="112">
         <f>SUM(G35:G40)</f>
         <v>250</v>
       </c>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="42" spans="3:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="10"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="160"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="112"/>
       <c r="H42" s="94"/>
       <c r="I42" s="94"/>
       <c r="W42" s="11"/>
@@ -2721,15 +2721,15 @@
     </row>
     <row r="46" spans="3:32" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="10"/>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="123"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="11"/>
@@ -2749,17 +2749,17 @@
     </row>
     <row r="48" spans="3:32" ht="21" x14ac:dyDescent="0.3">
       <c r="C48" s="10"/>
-      <c r="D48" s="157" t="s">
+      <c r="D48" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158" t="s">
+      <c r="E48" s="108"/>
+      <c r="F48" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="159"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="109"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="27"/>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="50" spans="3:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="10"/>
-      <c r="D50" s="156" t="s">
+      <c r="D50" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="156"/>
+      <c r="E50" s="106"/>
       <c r="F50" s="82"/>
       <c r="G50" s="82" t="s">
         <v>40</v>
@@ -2809,17 +2809,17 @@
     </row>
     <row r="52" spans="3:23" ht="21" x14ac:dyDescent="0.3">
       <c r="C52" s="10"/>
-      <c r="D52" s="157" t="s">
+      <c r="D52" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158" t="s">
+      <c r="E52" s="108"/>
+      <c r="F52" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="159"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="109"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="11"/>
@@ -2872,34 +2872,12 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F37:F38"/>
@@ -2916,12 +2894,34 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="S30:S31"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:J48"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.49" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
